--- a/DOWNLOADS/RESULTADO_metadados/categoria_GROK.xlsx
+++ b/DOWNLOADS/RESULTADO_metadados/categoria_GROK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/RESULTADO_metadados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_10D9A2FF07A38C241B2C4C324D6A0ED37973CEB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E877FE-7F6C-4B89-AF3D-FC3CB365C954}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_10D9A2FF07A38C241B2C4C324D6A0ED37973CEB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E829C9DC-86E8-4997-B422-B56EC4E7AC80}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-5796" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28704" yWindow="-18420" windowWidth="16392" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12454,6 +12454,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12747,13 +12751,13 @@
   <dimension ref="A1:G1361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E804" sqref="E804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="34.77734375" customWidth="1"/>
     <col min="7" max="7" width="62.5546875" customWidth="1"/>
   </cols>
@@ -14023,7 +14027,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -14069,7 +14073,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -14092,7 +14096,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -14115,7 +14119,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -14138,7 +14142,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -14253,7 +14257,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -14276,7 +14280,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -14299,7 +14303,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -14345,7 +14349,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -14368,7 +14372,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -14391,7 +14395,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -14414,7 +14418,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -14437,7 +14441,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -14460,7 +14464,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -14483,7 +14487,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -14529,7 +14533,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -14552,7 +14556,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -14575,7 +14579,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -14598,7 +14602,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -14621,7 +14625,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -14644,7 +14648,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -14667,7 +14671,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -14713,7 +14717,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -14736,7 +14740,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -14782,7 +14786,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -14805,7 +14809,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -14828,7 +14832,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -14851,7 +14855,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -14874,7 +14878,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -14897,7 +14901,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -14943,7 +14947,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -15840,7 +15844,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -15863,7 +15867,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -15886,7 +15890,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -15909,7 +15913,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -15978,7 +15982,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -16001,7 +16005,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -16024,7 +16028,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -16047,7 +16051,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -16070,7 +16074,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -16139,7 +16143,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -16162,7 +16166,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -16185,7 +16189,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -16208,7 +16212,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -16231,7 +16235,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -16254,7 +16258,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -16277,7 +16281,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -16300,7 +16304,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -16323,7 +16327,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -16346,7 +16350,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -16369,7 +16373,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -16392,7 +16396,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -16415,7 +16419,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -16438,7 +16442,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -16461,7 +16465,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -18899,7 +18903,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -18922,7 +18926,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -18945,7 +18949,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -19520,7 +19524,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -19543,7 +19547,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -19566,7 +19570,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -19589,7 +19593,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -19612,7 +19616,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -19635,7 +19639,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -19658,7 +19662,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -19681,7 +19685,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>307</v>
       </c>
@@ -19704,7 +19708,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>308</v>
       </c>
@@ -19727,7 +19731,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>309</v>
       </c>
@@ -19750,7 +19754,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>310</v>
       </c>
@@ -19773,7 +19777,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>311</v>
       </c>
@@ -19796,7 +19800,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>312</v>
       </c>
@@ -19819,7 +19823,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -19842,7 +19846,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>314</v>
       </c>
@@ -19865,7 +19869,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>315</v>
       </c>
@@ -19888,7 +19892,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>316</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -19934,7 +19938,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -19957,7 +19961,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>319</v>
       </c>
@@ -19980,7 +19984,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -20003,7 +20007,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>321</v>
       </c>
@@ -20026,7 +20030,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>322</v>
       </c>
@@ -20049,7 +20053,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -20072,7 +20076,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -20095,7 +20099,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>325</v>
       </c>
@@ -20118,7 +20122,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>326</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>327</v>
       </c>
@@ -20164,7 +20168,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>328</v>
       </c>
@@ -20187,7 +20191,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>329</v>
       </c>
@@ -20210,7 +20214,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -20233,7 +20237,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>331</v>
       </c>
@@ -20256,7 +20260,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>332</v>
       </c>
@@ -20279,7 +20283,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>333</v>
       </c>
@@ -21015,7 +21019,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -21038,7 +21042,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -21061,7 +21065,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>367</v>
       </c>
@@ -21084,7 +21088,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>368</v>
       </c>
@@ -21107,7 +21111,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -21130,7 +21134,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -21153,7 +21157,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>371</v>
       </c>
@@ -21176,7 +21180,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>372</v>
       </c>
@@ -21199,7 +21203,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>373</v>
       </c>
@@ -21222,7 +21226,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>374</v>
       </c>
@@ -24350,7 +24354,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>490</v>
       </c>
@@ -24373,7 +24377,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>491</v>
       </c>
@@ -24396,7 +24400,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>492</v>
       </c>
@@ -24557,7 +24561,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>499</v>
       </c>
@@ -24580,7 +24584,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>500</v>
       </c>
@@ -24603,7 +24607,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>501</v>
       </c>
@@ -24626,7 +24630,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>502</v>
       </c>
@@ -24649,7 +24653,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>503</v>
       </c>
@@ -24672,7 +24676,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>504</v>
       </c>
@@ -28628,7 +28632,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>676</v>
       </c>
@@ -28651,7 +28655,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>677</v>
       </c>
@@ -28674,7 +28678,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>678</v>
       </c>
@@ -28697,7 +28701,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>679</v>
       </c>
@@ -28720,7 +28724,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>680</v>
       </c>
@@ -28743,7 +28747,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>681</v>
       </c>
@@ -28766,7 +28770,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>682</v>
       </c>
@@ -28789,7 +28793,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>683</v>
       </c>
@@ -28812,7 +28816,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>684</v>
       </c>
@@ -28835,7 +28839,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>685</v>
       </c>
@@ -29479,7 +29483,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>713</v>
       </c>
@@ -29502,7 +29506,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>714</v>
       </c>
@@ -29525,7 +29529,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>715</v>
       </c>
@@ -29548,7 +29552,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>716</v>
       </c>
@@ -29571,7 +29575,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>717</v>
       </c>
@@ -29594,7 +29598,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>718</v>
       </c>
@@ -29617,7 +29621,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>719</v>
       </c>
@@ -29640,7 +29644,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>720</v>
       </c>
@@ -29663,7 +29667,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>721</v>
       </c>
@@ -29686,7 +29690,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>722</v>
       </c>
@@ -29709,7 +29713,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>723</v>
       </c>
@@ -29732,7 +29736,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>724</v>
       </c>
@@ -29801,7 +29805,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>727</v>
       </c>
@@ -29824,7 +29828,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>728</v>
       </c>
@@ -29893,7 +29897,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>731</v>
       </c>
@@ -29916,7 +29920,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>732</v>
       </c>
@@ -29939,7 +29943,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>733</v>
       </c>
@@ -29962,7 +29966,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>734</v>
       </c>
@@ -29985,7 +29989,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>735</v>
       </c>
@@ -30008,7 +30012,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>736</v>
       </c>
@@ -30031,7 +30035,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>737</v>
       </c>
@@ -30054,7 +30058,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>738</v>
       </c>
@@ -30077,7 +30081,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>739</v>
       </c>
@@ -30100,7 +30104,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>740</v>
       </c>
@@ -30123,7 +30127,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>741</v>
       </c>
@@ -30146,7 +30150,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>742</v>
       </c>
@@ -30169,7 +30173,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>743</v>
       </c>
@@ -30192,7 +30196,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>744</v>
       </c>
@@ -30215,7 +30219,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>745</v>
       </c>
@@ -30238,7 +30242,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>746</v>
       </c>
@@ -30261,7 +30265,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>747</v>
       </c>
@@ -30284,7 +30288,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>748</v>
       </c>
@@ -30307,7 +30311,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>749</v>
       </c>
@@ -30330,7 +30334,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>750</v>
       </c>
@@ -30353,7 +30357,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>751</v>
       </c>
@@ -30376,7 +30380,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>752</v>
       </c>
@@ -30399,7 +30403,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>753</v>
       </c>
@@ -30422,7 +30426,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>754</v>
       </c>
@@ -30445,7 +30449,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>755</v>
       </c>
@@ -30468,7 +30472,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>756</v>
       </c>
@@ -30491,7 +30495,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>757</v>
       </c>
@@ -30514,7 +30518,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>758</v>
       </c>
@@ -30537,7 +30541,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>759</v>
       </c>
@@ -30560,7 +30564,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>760</v>
       </c>
@@ -30583,7 +30587,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>761</v>
       </c>
@@ -30606,7 +30610,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>762</v>
       </c>
@@ -30629,7 +30633,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>763</v>
       </c>
@@ -30652,7 +30656,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>764</v>
       </c>
@@ -30675,7 +30679,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>765</v>
       </c>
@@ -30698,7 +30702,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>766</v>
       </c>
@@ -30721,7 +30725,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>767</v>
       </c>
@@ -30744,7 +30748,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>768</v>
       </c>
@@ -30767,7 +30771,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>769</v>
       </c>
@@ -30790,7 +30794,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>770</v>
       </c>
@@ -30813,7 +30817,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>771</v>
       </c>
@@ -30836,7 +30840,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>772</v>
       </c>
@@ -30859,7 +30863,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>773</v>
       </c>
@@ -30882,7 +30886,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>774</v>
       </c>
@@ -30905,7 +30909,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>775</v>
       </c>
@@ -30928,7 +30932,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>776</v>
       </c>
@@ -30951,7 +30955,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>777</v>
       </c>
@@ -30974,7 +30978,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>778</v>
       </c>
@@ -30997,7 +31001,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>779</v>
       </c>
@@ -31020,7 +31024,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>780</v>
       </c>
@@ -31043,7 +31047,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>781</v>
       </c>
@@ -31066,7 +31070,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>782</v>
       </c>
@@ -31089,7 +31093,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>783</v>
       </c>
@@ -31112,7 +31116,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>784</v>
       </c>
@@ -31160,7 +31164,7 @@
     </row>
     <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="B801" t="s">
         <v>1352</v>
@@ -31169,21 +31173,21 @@
         <v>1414</v>
       </c>
       <c r="D801" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E801" t="s">
-        <v>2250</v>
+        <v>2291</v>
       </c>
       <c r="F801">
-        <v>4790</v>
+        <v>2164.35</v>
       </c>
       <c r="G801" t="s">
-        <v>3550</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="B802" t="s">
         <v>1352</v>
@@ -31192,21 +31196,21 @@
         <v>1414</v>
       </c>
       <c r="D802" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E802" t="s">
-        <v>2251</v>
+        <v>2293</v>
       </c>
       <c r="F802">
-        <v>5490</v>
+        <v>2173.8000000000002</v>
       </c>
       <c r="G802" t="s">
-        <v>3551</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>788</v>
+        <v>825</v>
       </c>
       <c r="B803" t="s">
         <v>1352</v>
@@ -31215,21 +31219,21 @@
         <v>1414</v>
       </c>
       <c r="D803" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="E803" t="s">
-        <v>2252</v>
+        <v>2289</v>
       </c>
       <c r="F803">
-        <v>3990</v>
+        <v>2463.3000000000002</v>
       </c>
       <c r="G803" t="s">
-        <v>3552</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="B804" t="s">
         <v>1352</v>
@@ -31238,21 +31242,21 @@
         <v>1414</v>
       </c>
       <c r="D804" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="E804" t="s">
-        <v>2253</v>
+        <v>2295</v>
       </c>
       <c r="F804">
-        <v>4090</v>
+        <v>2549.4</v>
       </c>
       <c r="G804" t="s">
-        <v>3553</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="B805" t="s">
         <v>1352</v>
@@ -31261,21 +31265,21 @@
         <v>1414</v>
       </c>
       <c r="D805" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="E805" t="s">
-        <v>2254</v>
+        <v>2287</v>
       </c>
       <c r="F805">
-        <v>4790</v>
+        <v>2647.4</v>
       </c>
       <c r="G805" t="s">
-        <v>3554</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="B806" t="s">
         <v>1352</v>
@@ -31284,21 +31288,21 @@
         <v>1414</v>
       </c>
       <c r="D806" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="E806" t="s">
-        <v>2255</v>
+        <v>2288</v>
       </c>
       <c r="F806">
-        <v>5890</v>
+        <v>2647.4</v>
       </c>
       <c r="G806" t="s">
-        <v>3555</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="B807" t="s">
         <v>1352</v>
@@ -31307,21 +31311,21 @@
         <v>1414</v>
       </c>
       <c r="D807" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E807" t="s">
-        <v>2256</v>
+        <v>2292</v>
       </c>
       <c r="F807">
-        <v>5590</v>
+        <v>2860.3</v>
       </c>
       <c r="G807" t="s">
-        <v>3556</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>793</v>
+        <v>833</v>
       </c>
       <c r="B808" t="s">
         <v>1352</v>
@@ -31330,21 +31334,21 @@
         <v>1414</v>
       </c>
       <c r="D808" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="E808" t="s">
-        <v>2257</v>
+        <v>2297</v>
       </c>
       <c r="F808">
-        <v>3990</v>
+        <v>3237.5</v>
       </c>
       <c r="G808" t="s">
-        <v>3557</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="B809" t="s">
         <v>1352</v>
@@ -31356,18 +31360,18 @@
         <v>1446</v>
       </c>
       <c r="E809" t="s">
-        <v>2258</v>
+        <v>2272</v>
       </c>
       <c r="F809">
-        <v>5890</v>
+        <v>3690</v>
       </c>
       <c r="G809" t="s">
-        <v>3558</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="B810" t="s">
         <v>1352</v>
@@ -31379,18 +31383,18 @@
         <v>1446</v>
       </c>
       <c r="E810" t="s">
-        <v>2259</v>
+        <v>2273</v>
       </c>
       <c r="F810">
-        <v>6190</v>
+        <v>3690</v>
       </c>
       <c r="G810" t="s">
-        <v>3559</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="B811" t="s">
         <v>1352</v>
@@ -31402,18 +31406,18 @@
         <v>1446</v>
       </c>
       <c r="E811" t="s">
-        <v>2260</v>
+        <v>2270</v>
       </c>
       <c r="F811">
-        <v>20150</v>
+        <v>3790</v>
       </c>
       <c r="G811" t="s">
-        <v>3560</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B812" t="s">
         <v>1352</v>
@@ -31425,18 +31429,18 @@
         <v>1446</v>
       </c>
       <c r="E812" t="s">
-        <v>2261</v>
+        <v>2252</v>
       </c>
       <c r="F812">
-        <v>17850</v>
+        <v>3990</v>
       </c>
       <c r="G812" t="s">
-        <v>3561</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B813" t="s">
         <v>1352</v>
@@ -31448,18 +31452,18 @@
         <v>1446</v>
       </c>
       <c r="E813" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="F813">
-        <v>18150</v>
+        <v>3990</v>
       </c>
       <c r="G813" t="s">
-        <v>3562</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B814" t="s">
         <v>1352</v>
@@ -31471,18 +31475,18 @@
         <v>1446</v>
       </c>
       <c r="E814" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="F814">
-        <v>20150</v>
+        <v>4090</v>
       </c>
       <c r="G814" t="s">
-        <v>3563</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B815" t="s">
         <v>1352</v>
@@ -31494,18 +31498,18 @@
         <v>1446</v>
       </c>
       <c r="E815" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="F815">
-        <v>22190</v>
+        <v>4190</v>
       </c>
       <c r="G815" t="s">
-        <v>3564</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B816" t="s">
         <v>1352</v>
@@ -31517,18 +31521,18 @@
         <v>1446</v>
       </c>
       <c r="E816" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="F816">
-        <v>21390</v>
+        <v>4190</v>
       </c>
       <c r="G816" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B817" t="s">
         <v>1352</v>
@@ -31540,18 +31544,18 @@
         <v>1446</v>
       </c>
       <c r="E817" t="s">
-        <v>2266</v>
+        <v>2271</v>
       </c>
       <c r="F817">
-        <v>17550</v>
+        <v>4490</v>
       </c>
       <c r="G817" t="s">
-        <v>3566</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="B818" t="s">
         <v>1352</v>
@@ -31563,18 +31567,18 @@
         <v>1446</v>
       </c>
       <c r="E818" t="s">
-        <v>2267</v>
+        <v>2250</v>
       </c>
       <c r="F818">
-        <v>22190</v>
+        <v>4790</v>
       </c>
       <c r="G818" t="s">
-        <v>3567</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="B819" t="s">
         <v>1352</v>
@@ -31586,18 +31590,18 @@
         <v>1446</v>
       </c>
       <c r="E819" t="s">
-        <v>2268</v>
+        <v>2254</v>
       </c>
       <c r="F819">
-        <v>4190</v>
+        <v>4790</v>
       </c>
       <c r="G819" t="s">
-        <v>3568</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B820" t="s">
         <v>1352</v>
@@ -31609,18 +31613,18 @@
         <v>1446</v>
       </c>
       <c r="E820" t="s">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="F820">
-        <v>4190</v>
+        <v>4990</v>
       </c>
       <c r="G820" t="s">
-        <v>3569</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="B821" t="s">
         <v>1352</v>
@@ -31632,18 +31636,18 @@
         <v>1446</v>
       </c>
       <c r="E821" t="s">
-        <v>2270</v>
+        <v>2279</v>
       </c>
       <c r="F821">
-        <v>3790</v>
+        <v>5190</v>
       </c>
       <c r="G821" t="s">
-        <v>3570</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B822" t="s">
         <v>1352</v>
@@ -31655,18 +31659,18 @@
         <v>1446</v>
       </c>
       <c r="E822" t="s">
-        <v>2271</v>
+        <v>2280</v>
       </c>
       <c r="F822">
-        <v>4490</v>
+        <v>5190</v>
       </c>
       <c r="G822" t="s">
-        <v>3571</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B823" t="s">
         <v>1352</v>
@@ -31678,18 +31682,18 @@
         <v>1446</v>
       </c>
       <c r="E823" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="F823">
-        <v>3690</v>
+        <v>5410</v>
       </c>
       <c r="G823" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="B824" t="s">
         <v>1352</v>
@@ -31701,18 +31705,18 @@
         <v>1446</v>
       </c>
       <c r="E824" t="s">
-        <v>2273</v>
+        <v>2251</v>
       </c>
       <c r="F824">
-        <v>3690</v>
+        <v>5490</v>
       </c>
       <c r="G824" t="s">
-        <v>3573</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="B825" t="s">
         <v>1352</v>
@@ -31724,18 +31728,18 @@
         <v>1446</v>
       </c>
       <c r="E825" t="s">
-        <v>2274</v>
+        <v>2256</v>
       </c>
       <c r="F825">
-        <v>5710</v>
+        <v>5590</v>
       </c>
       <c r="G825" t="s">
-        <v>3574</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B826" t="s">
         <v>1352</v>
@@ -31747,13 +31751,13 @@
         <v>1446</v>
       </c>
       <c r="E826" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="F826">
-        <v>5410</v>
+        <v>5710</v>
       </c>
       <c r="G826" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -31781,7 +31785,7 @@
     </row>
     <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="B828" t="s">
         <v>1352</v>
@@ -31793,18 +31797,18 @@
         <v>1446</v>
       </c>
       <c r="E828" t="s">
-        <v>2277</v>
+        <v>2255</v>
       </c>
       <c r="F828">
-        <v>6190</v>
+        <v>5890</v>
       </c>
       <c r="G828" t="s">
-        <v>3577</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="B829" t="s">
         <v>1352</v>
@@ -31816,18 +31820,18 @@
         <v>1446</v>
       </c>
       <c r="E829" t="s">
-        <v>2278</v>
+        <v>2258</v>
       </c>
       <c r="F829">
-        <v>4990</v>
+        <v>5890</v>
       </c>
       <c r="G829" t="s">
-        <v>3578</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="B830" t="s">
         <v>1352</v>
@@ -31839,18 +31843,18 @@
         <v>1446</v>
       </c>
       <c r="E830" t="s">
-        <v>2279</v>
+        <v>2259</v>
       </c>
       <c r="F830">
-        <v>5190</v>
+        <v>6190</v>
       </c>
       <c r="G830" t="s">
-        <v>3579</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B831" t="s">
         <v>1352</v>
@@ -31862,13 +31866,13 @@
         <v>1446</v>
       </c>
       <c r="E831" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="F831">
-        <v>5190</v>
+        <v>6190</v>
       </c>
       <c r="G831" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -31896,7 +31900,7 @@
     </row>
     <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B833" t="s">
         <v>1352</v>
@@ -31908,18 +31912,18 @@
         <v>1446</v>
       </c>
       <c r="E833" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="F833">
-        <v>7790</v>
+        <v>7490</v>
       </c>
       <c r="G833" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B834" t="s">
         <v>1352</v>
@@ -31931,13 +31935,13 @@
         <v>1446</v>
       </c>
       <c r="E834" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="F834">
-        <v>7490</v>
+        <v>7790</v>
       </c>
       <c r="G834" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -31988,7 +31992,7 @@
     </row>
     <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B837" t="s">
         <v>1352</v>
@@ -31997,21 +32001,21 @@
         <v>1414</v>
       </c>
       <c r="D837" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="E837" t="s">
-        <v>2286</v>
+        <v>2294</v>
       </c>
       <c r="F837">
-        <v>9500.27</v>
+        <v>9239.02</v>
       </c>
       <c r="G837" t="s">
-        <v>3586</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B838" t="s">
         <v>1352</v>
@@ -32020,21 +32024,21 @@
         <v>1414</v>
       </c>
       <c r="D838" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E838" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F838">
-        <v>2647.4</v>
+        <v>9500.27</v>
       </c>
       <c r="G838" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B839" t="s">
         <v>1352</v>
@@ -32043,21 +32047,21 @@
         <v>1414</v>
       </c>
       <c r="D839" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E839" t="s">
-        <v>2288</v>
+        <v>2296</v>
       </c>
       <c r="F839">
-        <v>2647.4</v>
+        <v>12127.45</v>
       </c>
       <c r="G839" t="s">
-        <v>3588</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B840" t="s">
         <v>1352</v>
@@ -32069,18 +32073,18 @@
         <v>1439</v>
       </c>
       <c r="E840" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="F840">
-        <v>2463.3000000000002</v>
+        <v>12131.7</v>
       </c>
       <c r="G840" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="B841" t="s">
         <v>1352</v>
@@ -32089,21 +32093,21 @@
         <v>1414</v>
       </c>
       <c r="D841" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
       <c r="E841" t="s">
-        <v>2290</v>
+        <v>2266</v>
       </c>
       <c r="F841">
-        <v>12131.7</v>
+        <v>17550</v>
       </c>
       <c r="G841" t="s">
-        <v>3590</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="B842" t="s">
         <v>1352</v>
@@ -32112,21 +32116,21 @@
         <v>1414</v>
       </c>
       <c r="D842" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E842" t="s">
-        <v>2291</v>
+        <v>2261</v>
       </c>
       <c r="F842">
-        <v>2164.35</v>
+        <v>17850</v>
       </c>
       <c r="G842" t="s">
-        <v>3591</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="B843" t="s">
         <v>1352</v>
@@ -32135,21 +32139,21 @@
         <v>1414</v>
       </c>
       <c r="D843" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E843" t="s">
-        <v>2292</v>
+        <v>2262</v>
       </c>
       <c r="F843">
-        <v>2860.3</v>
+        <v>18150</v>
       </c>
       <c r="G843" t="s">
-        <v>3592</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="B844" t="s">
         <v>1352</v>
@@ -32158,21 +32162,21 @@
         <v>1414</v>
       </c>
       <c r="D844" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E844" t="s">
-        <v>2293</v>
+        <v>2260</v>
       </c>
       <c r="F844">
-        <v>2173.8000000000002</v>
+        <v>20150</v>
       </c>
       <c r="G844" t="s">
-        <v>3593</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="B845" t="s">
         <v>1352</v>
@@ -32181,21 +32185,21 @@
         <v>1414</v>
       </c>
       <c r="D845" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E845" t="s">
-        <v>2294</v>
+        <v>2263</v>
       </c>
       <c r="F845">
-        <v>9239.02</v>
+        <v>20150</v>
       </c>
       <c r="G845" t="s">
-        <v>3594</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="846" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="B846" t="s">
         <v>1352</v>
@@ -32204,21 +32208,21 @@
         <v>1414</v>
       </c>
       <c r="D846" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
       <c r="E846" t="s">
-        <v>2295</v>
+        <v>2265</v>
       </c>
       <c r="F846">
-        <v>2549.4</v>
+        <v>21390</v>
       </c>
       <c r="G846" t="s">
-        <v>3595</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="B847" t="s">
         <v>1352</v>
@@ -32227,21 +32231,21 @@
         <v>1414</v>
       </c>
       <c r="D847" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
       <c r="E847" t="s">
-        <v>2296</v>
+        <v>2264</v>
       </c>
       <c r="F847">
-        <v>12127.45</v>
+        <v>22190</v>
       </c>
       <c r="G847" t="s">
-        <v>3596</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="B848" t="s">
         <v>1352</v>
@@ -32250,16 +32254,16 @@
         <v>1414</v>
       </c>
       <c r="D848" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
       <c r="E848" t="s">
-        <v>2297</v>
+        <v>2267</v>
       </c>
       <c r="F848">
-        <v>3237.5</v>
+        <v>22190</v>
       </c>
       <c r="G848" t="s">
-        <v>3597</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="849" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -33297,7 +33301,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>879</v>
       </c>
@@ -33320,7 +33324,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>880</v>
       </c>
@@ -33343,7 +33347,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>881</v>
       </c>
@@ -33366,7 +33370,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>882</v>
       </c>
@@ -33389,7 +33393,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>883</v>
       </c>
@@ -33412,7 +33416,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>884</v>
       </c>
@@ -33435,7 +33439,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>885</v>
       </c>
@@ -33458,7 +33462,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>886</v>
       </c>
@@ -33481,7 +33485,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>887</v>
       </c>
@@ -33504,7 +33508,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>888</v>
       </c>
@@ -33527,7 +33531,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>889</v>
       </c>
@@ -33550,7 +33554,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>890</v>
       </c>
@@ -33573,7 +33577,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>891</v>
       </c>
@@ -33596,7 +33600,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>892</v>
       </c>
@@ -33619,7 +33623,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>893</v>
       </c>
@@ -33642,7 +33646,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>894</v>
       </c>
@@ -33665,7 +33669,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>895</v>
       </c>
@@ -33688,7 +33692,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>896</v>
       </c>
@@ -33711,7 +33715,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>897</v>
       </c>
@@ -33734,7 +33738,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>898</v>
       </c>
@@ -33757,7 +33761,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>899</v>
       </c>
@@ -33780,7 +33784,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>900</v>
       </c>
@@ -33803,7 +33807,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>901</v>
       </c>
@@ -33826,7 +33830,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>902</v>
       </c>
@@ -33849,7 +33853,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>903</v>
       </c>
@@ -33872,7 +33876,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>904</v>
       </c>
@@ -33895,7 +33899,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>905</v>
       </c>
@@ -33918,7 +33922,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>906</v>
       </c>
@@ -33941,7 +33945,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>907</v>
       </c>
@@ -33964,7 +33968,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>908</v>
       </c>
@@ -33987,7 +33991,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>909</v>
       </c>
@@ -34010,7 +34014,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>910</v>
       </c>
@@ -34033,7 +34037,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>911</v>
       </c>
@@ -34056,7 +34060,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>912</v>
       </c>
@@ -34079,7 +34083,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>913</v>
       </c>
@@ -34102,7 +34106,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>914</v>
       </c>
@@ -34125,7 +34129,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>915</v>
       </c>
@@ -34148,7 +34152,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>916</v>
       </c>
@@ -34171,7 +34175,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>917</v>
       </c>
@@ -34194,7 +34198,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>918</v>
       </c>
@@ -34217,7 +34221,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>919</v>
       </c>
@@ -34240,7 +34244,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>920</v>
       </c>
@@ -34263,7 +34267,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>921</v>
       </c>
@@ -34286,7 +34290,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>922</v>
       </c>
@@ -34309,7 +34313,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>923</v>
       </c>
@@ -34332,7 +34336,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>924</v>
       </c>
@@ -34355,7 +34359,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>925</v>
       </c>
@@ -34378,7 +34382,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>926</v>
       </c>
@@ -34401,7 +34405,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>927</v>
       </c>
@@ -34424,7 +34428,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>928</v>
       </c>
@@ -34447,7 +34451,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>929</v>
       </c>
@@ -34470,7 +34474,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>930</v>
       </c>
@@ -34493,7 +34497,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>931</v>
       </c>
@@ -34516,7 +34520,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>932</v>
       </c>
@@ -34539,7 +34543,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>933</v>
       </c>
@@ -34562,7 +34566,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>934</v>
       </c>
@@ -34585,7 +34589,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>935</v>
       </c>
@@ -34608,7 +34612,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>936</v>
       </c>
@@ -34631,7 +34635,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>937</v>
       </c>
@@ -34654,7 +34658,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>938</v>
       </c>
@@ -34677,7 +34681,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>939</v>
       </c>
@@ -34700,7 +34704,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>940</v>
       </c>
@@ -34723,7 +34727,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>941</v>
       </c>
@@ -34746,7 +34750,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>942</v>
       </c>
@@ -34769,7 +34773,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>943</v>
       </c>
@@ -34792,7 +34796,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>944</v>
       </c>
@@ -35160,7 +35164,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>960</v>
       </c>
@@ -35183,7 +35187,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>961</v>
       </c>
@@ -35206,7 +35210,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>962</v>
       </c>
@@ -35229,7 +35233,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>963</v>
       </c>
@@ -35252,7 +35256,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>964</v>
       </c>
@@ -35275,7 +35279,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>965</v>
       </c>
@@ -35298,7 +35302,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>966</v>
       </c>
@@ -35321,7 +35325,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>967</v>
       </c>
@@ -35344,7 +35348,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>968</v>
       </c>
@@ -35367,7 +35371,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>969</v>
       </c>
@@ -35390,7 +35394,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>970</v>
       </c>
@@ -35413,7 +35417,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>971</v>
       </c>
@@ -35436,7 +35440,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>972</v>
       </c>
@@ -35459,7 +35463,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>973</v>
       </c>
@@ -35482,7 +35486,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>974</v>
       </c>
@@ -35505,7 +35509,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>975</v>
       </c>
@@ -35528,7 +35532,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>976</v>
       </c>
@@ -35551,7 +35555,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>977</v>
       </c>
@@ -35574,7 +35578,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>978</v>
       </c>
@@ -35597,7 +35601,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>979</v>
       </c>
@@ -35620,7 +35624,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>980</v>
       </c>
@@ -35643,7 +35647,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>981</v>
       </c>
@@ -35666,7 +35670,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>982</v>
       </c>
@@ -35689,7 +35693,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>983</v>
       </c>
@@ -35712,7 +35716,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>984</v>
       </c>
@@ -35735,7 +35739,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>985</v>
       </c>
@@ -35758,7 +35762,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>986</v>
       </c>
@@ -35781,7 +35785,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>987</v>
       </c>
@@ -35804,7 +35808,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>988</v>
       </c>
@@ -35827,7 +35831,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
         <v>989</v>
       </c>
@@ -35850,7 +35854,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
         <v>990</v>
       </c>
@@ -36333,7 +36337,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>1011</v>
       </c>
@@ -36356,7 +36360,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>1012</v>
       </c>
@@ -36379,7 +36383,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
         <v>1013</v>
       </c>
@@ -36402,7 +36406,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>1014</v>
       </c>
@@ -36425,7 +36429,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>1015</v>
       </c>
@@ -36448,7 +36452,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>1016</v>
       </c>
@@ -36471,7 +36475,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>1017</v>
       </c>
@@ -36494,7 +36498,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>1018</v>
       </c>
@@ -36517,7 +36521,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
         <v>1019</v>
       </c>
@@ -36540,7 +36544,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>1020</v>
       </c>
@@ -36563,7 +36567,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>1021</v>
       </c>
@@ -36586,7 +36590,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>1022</v>
       </c>
@@ -36609,7 +36613,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>1023</v>
       </c>
@@ -36632,7 +36636,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>1024</v>
       </c>
@@ -36655,7 +36659,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
         <v>1025</v>
       </c>
@@ -36678,7 +36682,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>1026</v>
       </c>
@@ -36701,7 +36705,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>1027</v>
       </c>
@@ -36724,7 +36728,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>1028</v>
       </c>
@@ -36747,7 +36751,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>1029</v>
       </c>
@@ -36770,7 +36774,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>1030</v>
       </c>
@@ -36793,7 +36797,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>1031</v>
       </c>
@@ -36816,7 +36820,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
         <v>1032</v>
       </c>
@@ -36839,7 +36843,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>1033</v>
       </c>
@@ -36862,7 +36866,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>1034</v>
       </c>
@@ -36885,7 +36889,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>1035</v>
       </c>
@@ -36908,7 +36912,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>1036</v>
       </c>
@@ -37046,7 +37050,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>1042</v>
       </c>
@@ -37069,7 +37073,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
         <v>1043</v>
       </c>
@@ -37092,7 +37096,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
         <v>1044</v>
       </c>
@@ -37115,7 +37119,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
         <v>1045</v>
       </c>
@@ -37138,7 +37142,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
         <v>1046</v>
       </c>
@@ -37161,7 +37165,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
         <v>1047</v>
       </c>
@@ -37184,7 +37188,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
         <v>1048</v>
       </c>
@@ -39967,7 +39971,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
         <v>1168</v>
       </c>
@@ -39990,7 +39994,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
         <v>1169</v>
       </c>
@@ -40013,7 +40017,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
         <v>1170</v>
       </c>
@@ -40036,7 +40040,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
         <v>1171</v>
       </c>
@@ -40059,7 +40063,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
         <v>1172</v>
       </c>
@@ -40082,7 +40086,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
         <v>1173</v>
       </c>
@@ -40105,7 +40109,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>1174</v>
       </c>
@@ -40128,7 +40132,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>1175</v>
       </c>
@@ -40151,7 +40155,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>1176</v>
       </c>
@@ -40174,7 +40178,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
         <v>1177</v>
       </c>
@@ -40197,7 +40201,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>1178</v>
       </c>
@@ -40220,7 +40224,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
         <v>1179</v>
       </c>
@@ -40243,7 +40247,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>1180</v>
       </c>
@@ -40266,7 +40270,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>1181</v>
       </c>
@@ -40289,7 +40293,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
         <v>1182</v>
       </c>
@@ -40312,7 +40316,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>1183</v>
       </c>
@@ -40335,7 +40339,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>1184</v>
       </c>
@@ -40358,7 +40362,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>1185</v>
       </c>
@@ -40381,7 +40385,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
         <v>1186</v>
       </c>
@@ -40404,7 +40408,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
         <v>1187</v>
       </c>
@@ -40427,7 +40431,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
         <v>1188</v>
       </c>
@@ -40450,7 +40454,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
         <v>1189</v>
       </c>
@@ -40473,7 +40477,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
         <v>1190</v>
       </c>
@@ -40496,7 +40500,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
         <v>1191</v>
       </c>
@@ -40519,7 +40523,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
         <v>1192</v>
       </c>
@@ -40542,7 +40546,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
         <v>1193</v>
       </c>
@@ -40565,7 +40569,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
         <v>1194</v>
       </c>
@@ -40588,7 +40592,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
         <v>1195</v>
       </c>
@@ -44060,16 +44064,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1361" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="INSTRUMENTO_PERCUSSAO"/>
+        <filter val="sistema de PA"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="LUEN"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A801:G848">
+      <sortCondition ref="F1:F1361"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
